--- a/chatbotdata.xlsx
+++ b/chatbotdata.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-02-20 17:18:35</t>
+          <t>2023-03-18 17:45:47</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,315 +480,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>i want to eat</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>you can go to the cafeteria in the first floor</t>
+          <t>tell me the time can you tell me what time is it now</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>cafeteria</t>
+          <t>current_time</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.75</v>
+        <v>8.171999999998661</v>
       </c>
       <c r="G2" t="n">
-        <v>7.733999999999469</v>
+        <v>238.2030000000013</v>
       </c>
       <c r="H2" t="n">
-        <v>13.48399999999947</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-02-20 17:18:35</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>where is the red charmel</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>i currently dont know the appropriate response for that statement</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7.561999999999898</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11.51599999999962</v>
-      </c>
-      <c r="H3" t="n">
-        <v>19.07799999999952</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-02-20 17:18:35</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>where is the registrar located</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sorry, i don't understand. Could you please repeat that again?</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4.734999999999673</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9.625</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14.35999999999967</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-02-20 17:18:35</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>bye</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>See you later!</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>bye</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4.061999999999898</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14.78200000000015</v>
-      </c>
-      <c r="H5" t="n">
-        <v>18.84400000000005</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-02-20 17:18:35</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>what are your hobbies</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>in my free time, I usually look at the funny faces stored in my database</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>hobby</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3.655999999999949</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8.20299999999952</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11.85899999999947</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-02-20 17:18:35</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>what is the weather today</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>It's always a good idea to have an umbrella with you, just in case!</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>weather</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7.563000000000102</v>
-      </c>
-      <c r="G7" t="n">
-        <v>13.0619999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>20.625</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-02-20 17:18:35</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>fuck you fuck you</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>please refrain from saying such words</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>swearwords</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>11.28099999999995</v>
-      </c>
-      <c r="G8" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="H8" t="n">
-        <v>37.03099999999995</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-02-20 17:18:35</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>hello ram</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>what can you do for me what can you do</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>at the moment, i can't do much because I am still in development</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>capabilities</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7.17200000000048</v>
-      </c>
-      <c r="G9" t="n">
-        <v>23.10899999999947</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30.28099999999995</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023-02-20 17:18:35</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>who are hello ram</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>who are you who are you</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>I am rammy bot</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>who are you</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5.609000000000378</v>
-      </c>
-      <c r="G10" t="n">
-        <v>18.125</v>
-      </c>
-      <c r="H10" t="n">
-        <v>23.73400000000038</v>
+        <v>246.375</v>
       </c>
     </row>
   </sheetData>

--- a/chatbotdata.xlsx
+++ b/chatbotdata.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-03-18 17:45:47</t>
+          <t>2023-04-15 19:26:40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,22 +480,259 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tell me the time can you tell me what time is it now</t>
+          <t>how are you</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Im fine, thank you for asking</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>how are you</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.313000000000102</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12.5630000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-04-15 19:26:53</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>what does the admissions office do</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>the admissions office is responsible for the recruitment, selection, and admission of students to APC</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>genInfo admissions office</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3.734000000000378</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.0619999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13.79600000000028</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-04-15 19:27:07</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>can you help me find a room</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>location_help</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4.109000000000378</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22.34400000000005</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.45300000000043</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-04-15 19:28:33</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hello ronnie hello rami</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tell me the time</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>current_time</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>8.171999999998661</v>
-      </c>
-      <c r="G2" t="n">
-        <v>238.2030000000013</v>
-      </c>
-      <c r="H2" t="n">
-        <v>246.375</v>
+      <c r="F5" t="n">
+        <v>17.21900000000005</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17.78099999999995</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-04-15 19:29:34</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>who handles the student affairs</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>the student affairs office is responsible for the delivery of student services to students</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>genInfo student affairs</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>15.78099999999995</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.67200000000048</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25.45300000000043</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-04-15 19:29:59</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tell me more about computer engineering</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>blocked by context filters</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>computer engineering</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>7.811999999999898</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8.313000000000102</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-04-15 19:30:16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>what programs does apc offer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>apc programs</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3.217999999999847</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17.92200000000048</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21.14000000000033</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-04-15 19:30:37</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>can you help me find the room hello rami</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>location_help</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>5.405999999999949</v>
+      </c>
+      <c r="G9" t="n">
+        <v>51.67199999999957</v>
+      </c>
+      <c r="H9" t="n">
+        <v>57.07799999999952</v>
       </c>
     </row>
   </sheetData>

--- a/chatbotdata.xlsx
+++ b/chatbotdata.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-04-15 19:26:40</t>
+          <t>2023-04-17 10:09:59</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,33 +480,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>how are you</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Im fine, thank you for asking</t>
+          <t>tell the time</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>how are you</t>
+          <t>current_time</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>4.98399999999674</v>
       </c>
       <c r="G2" t="n">
-        <v>9.313000000000102</v>
+        <v>14.51600000000326</v>
       </c>
       <c r="H2" t="n">
-        <v>12.5630000000001</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-04-15 19:26:53</t>
+          <t>2023-04-17 10:14:01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,223 +511,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>what does the admissions office do</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>the admissions office is responsible for the recruitment, selection, and admission of students to APC</t>
+          <t>sing a song</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>genInfo admissions office</t>
+          <t>sing</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.734000000000378</v>
+        <v>5.078000000001339</v>
       </c>
       <c r="G3" t="n">
-        <v>10.0619999999999</v>
+        <v>53.57799999999406</v>
       </c>
       <c r="H3" t="n">
-        <v>13.79600000000028</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-04-15 19:27:07</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>can you help me find a room</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>location_help</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4.109000000000378</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22.34400000000005</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26.45300000000043</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-04-15 19:28:33</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>hello ronnie hello rami</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>tell me the time</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>current_time</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>17.21900000000005</v>
-      </c>
-      <c r="G5" t="n">
-        <v>17.78099999999995</v>
-      </c>
-      <c r="H5" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-04-15 19:29:34</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>who handles the student affairs</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>the student affairs office is responsible for the delivery of student services to students</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>genInfo student affairs</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>15.78099999999995</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.67200000000048</v>
-      </c>
-      <c r="H6" t="n">
-        <v>25.45300000000043</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-04-15 19:29:59</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>tell me more about computer engineering</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>blocked by context filters</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>computer engineering</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7.811999999999898</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.313000000000102</v>
-      </c>
-      <c r="H7" t="n">
-        <v>16.125</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-04-15 19:30:16</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>what programs does apc offer</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>apc programs</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3.217999999999847</v>
-      </c>
-      <c r="G8" t="n">
-        <v>17.92200000000048</v>
-      </c>
-      <c r="H8" t="n">
-        <v>21.14000000000033</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-04-15 19:30:37</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>can you help me find the room hello rami</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>location_help</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5.405999999999949</v>
-      </c>
-      <c r="G9" t="n">
-        <v>51.67199999999957</v>
-      </c>
-      <c r="H9" t="n">
-        <v>57.07799999999952</v>
+        <v>58.6559999999954</v>
       </c>
     </row>
   </sheetData>

--- a/chatbotdata.xlsx
+++ b/chatbotdata.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-04-17 10:09:59</t>
+          <t>2023-06-01 16:46:29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,53 +480,171 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tell the time</t>
+          <t>jeremy</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>i don't understand</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>current_time</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.98399999999674</v>
+        <v>6.218999999982771</v>
       </c>
       <c r="G2" t="n">
-        <v>14.51600000000326</v>
+        <v>12.85899999999674</v>
       </c>
       <c r="H2" t="n">
-        <v>19.5</v>
+        <v>19.07799999997951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-04-17 10:14:01</t>
+          <t>2023-06-01 16:47:02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>jeremy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>tm</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sorry, i don't understand</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>9.625</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.686999999976251</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18.31199999997625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-06-01 16:47:21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>hello rami</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sing a song</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sing</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5.078000000001339</v>
-      </c>
-      <c r="G3" t="n">
-        <v>53.57799999999406</v>
-      </c>
-      <c r="H3" t="n">
-        <v>58.6559999999954</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>thank you</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>You're welcome</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>thanks</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>7.313000000023749</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24.81300000002375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-06-01 16:47:46</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>jeremy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jeremy</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>i don't understand</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>5.843999999982771</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14.09399999998277</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-06-01 16:50:02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>hi ronnie</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hello!</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6.360000000044238</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.639999999955762</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/chatbotdata.xlsx
+++ b/chatbotdata.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-06-01 16:46:29</t>
+          <t>2023-06-05 11:56:59</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,69 +480,64 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jeremy</t>
+          <t>where is the room 802</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>i don't understand</t>
+          <t>it is located at the 8th floor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>eighth floor location unfinished</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.218999999982771</v>
+        <v>4.047000000005937</v>
       </c>
       <c r="G2" t="n">
-        <v>12.85899999999674</v>
+        <v>12.1869999999908</v>
       </c>
       <c r="H2" t="n">
-        <v>19.07799999997951</v>
+        <v>16.23399999999674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-06-01 16:47:02</t>
+          <t>2023-06-05 11:59:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jeremy</t>
+          <t>hello rami</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tm</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sorry, i don't understand</t>
+          <t>can you help me find a room</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>location_help</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9.625</v>
+        <v>4.592999999993481</v>
       </c>
       <c r="G3" t="n">
-        <v>8.686999999976251</v>
+        <v>6.703000000008615</v>
       </c>
       <c r="H3" t="n">
-        <v>18.31199999997625</v>
+        <v>11.2960000000021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-06-01 16:47:21</t>
+          <t>2023-06-05 12:00:29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -552,69 +547,64 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>thank you</t>
+          <t>what are you capable of</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>You're welcome</t>
+          <t>I am here to assist you with any questions or tasks you may have. Just let me know how I can help.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>thanks</t>
+          <t>help</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.313000000023749</v>
+        <v>11.75</v>
       </c>
       <c r="G4" t="n">
-        <v>17.5</v>
+        <v>16.73399999999674</v>
       </c>
       <c r="H4" t="n">
-        <v>24.81300000002375</v>
+        <v>28.48399999999674</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-06-01 16:47:46</t>
+          <t>2023-06-05 12:00:59</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jeremy</t>
+          <t>hello rami</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jeremy</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>i don't understand</t>
+          <t>find jerome</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>location_help</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.843999999982771</v>
+        <v>5.546000000002095</v>
       </c>
       <c r="G5" t="n">
-        <v>8.25</v>
+        <v>8.953999999997905</v>
       </c>
       <c r="H5" t="n">
-        <v>14.09399999998277</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-06-01 16:50:02</t>
+          <t>2023-06-05 12:01:15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,27 +614,162 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hi ronnie</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Hello!</t>
+          <t>find room</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>location_help</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.360000000044238</v>
+        <v>12.20299999999406</v>
       </c>
       <c r="G6" t="n">
-        <v>6.639999999955762</v>
+        <v>3.968999999997322</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>16.17199999999139</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-06-05 12:01:33</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>what room is hello ramy</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8.953000000008615</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18.20300000000861</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-06-05 12:01:56</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>hello rami hello rami</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>where is the faculty call quality</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>it is located at the 4th floor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>fourth floor location</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>25.06200000000536</v>
+      </c>
+      <c r="G8" t="n">
+        <v>137.0470000000059</v>
+      </c>
+      <c r="H8" t="n">
+        <v>162.1090000000113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-06-05 12:04:40</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>where is the valverde</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>6.14100000000326</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.14100000000326</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.28200000000652</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-06-05 12:04:54</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>where is the boardroom</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>5.389999999999418</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.81299999999464</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16.20299999999406</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-06-05 12:05:15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>where is the registrar</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.51499999999942</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20.26499999999942</v>
       </c>
     </row>
   </sheetData>

--- a/chatbotdata.xlsx
+++ b/chatbotdata.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-06-05 11:56:59</t>
+          <t>2023-06-11 18:10:20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,100 +480,105 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>where is the room 802</t>
+          <t>where is the room 803</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>it is located at the 8th floor</t>
+          <t>it is located at the 4th floor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>eighth floor location unfinished</t>
+          <t>LOC fourth floor location</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.047000000005937</v>
+        <v>3.562999999994645</v>
       </c>
       <c r="G2" t="n">
-        <v>12.1869999999908</v>
+        <v>9.671000000002095</v>
       </c>
       <c r="H2" t="n">
-        <v>16.23399999999674</v>
+        <v>13.23399999999674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-06-05 11:59:30</t>
+          <t>2023-06-11 18:11:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hello rami</t>
+          <t>hello ram</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>can you help me find a room</t>
+          <t>where is the room</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>it is located at the 7th floor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>location_help</t>
+          <t>LOC seventh floor location</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.592999999993481</v>
+        <v>2.985000000000582</v>
       </c>
       <c r="G3" t="n">
-        <v>6.703000000008615</v>
+        <v>5.687000000005355</v>
       </c>
       <c r="H3" t="n">
-        <v>11.2960000000021</v>
+        <v>8.672000000005937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-06-05 12:00:29</t>
+          <t>2023-06-11 18:11:20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hello rami</t>
+          <t>hello robi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>what are you capable of</t>
+          <t>where is the room</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>I am here to assist you with any questions or tasks you may have. Just let me know how I can help.</t>
+          <t>it is located at the 7th floor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>LOC seventh floor location</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11.75</v>
+        <v>3.157000000006519</v>
       </c>
       <c r="G4" t="n">
-        <v>16.73399999999674</v>
+        <v>6.937000000005355</v>
       </c>
       <c r="H4" t="n">
-        <v>28.48399999999674</v>
+        <v>10.09400000001187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-06-05 12:00:59</t>
+          <t>2023-06-11 18:11:38</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -583,28 +588,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>find jerome</t>
+          <t>where is the room</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>it is located at the 7th floor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>location_help</t>
+          <t>LOC seventh floor location</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.546000000002095</v>
+        <v>4.01600000000326</v>
       </c>
       <c r="G5" t="n">
-        <v>8.953999999997905</v>
+        <v>9.968999999997322</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5</v>
+        <v>13.98500000000058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-06-05 12:01:15</t>
+          <t>2023-06-11 18:11:58</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -614,28 +624,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>find room</t>
+          <t>where is 803</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>it is located at the 8th floor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>location_help</t>
+          <t>LOC eighth floor location</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12.20299999999406</v>
+        <v>3.061999999990803</v>
       </c>
       <c r="G6" t="n">
-        <v>3.968999999997322</v>
+        <v>6.969000000011874</v>
       </c>
       <c r="H6" t="n">
-        <v>16.17199999999139</v>
+        <v>10.03100000000268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-06-05 12:01:33</t>
+          <t>2023-06-11 18:13:19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -645,131 +660,63 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>what room is hello ramy</t>
+          <t>where is the admissions office</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>it is located here at the 1st floor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LOC lobby floor location</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9.25</v>
+        <v>3.844000000011874</v>
       </c>
       <c r="G7" t="n">
-        <v>8.953000000008615</v>
+        <v>7.515999999988708</v>
       </c>
       <c r="H7" t="n">
-        <v>18.20300000000861</v>
+        <v>11.36000000000058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-06-05 12:01:56</t>
+          <t>2023-06-11 18:13:31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hello rami hello rami</t>
+          <t>hello robi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>where is the faculty call quality</t>
+          <t>what does the admissions office do</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>it is located at the 4th floor</t>
+          <t>it is located here at the 1st floor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fourth floor location</t>
+          <t>LOC lobby floor location</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25.06200000000536</v>
+        <v>3.73399999999674</v>
       </c>
       <c r="G8" t="n">
-        <v>137.0470000000059</v>
+        <v>8.60899999999674</v>
       </c>
       <c r="H8" t="n">
-        <v>162.1090000000113</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-06-05 12:04:40</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>where is the valverde</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6.14100000000326</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.14100000000326</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10.28200000000652</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023-06-05 12:04:54</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>where is the boardroom</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5.389999999999418</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.81299999999464</v>
-      </c>
-      <c r="H10" t="n">
-        <v>16.20299999999406</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023-06-05 12:05:15</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>where is the registrar</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13.51499999999942</v>
-      </c>
-      <c r="H11" t="n">
-        <v>20.26499999999942</v>
+        <v>12.34299999999348</v>
       </c>
     </row>
   </sheetData>

--- a/chatbotdata.xlsx
+++ b/chatbotdata.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-06-11 18:10:20</t>
+          <t>2023-06-20 20:50:27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,243 +480,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>where is the room 803</t>
+          <t>hello</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>it is located at the 4th floor</t>
+          <t>Hello, my fantastic friend! How can I make your day shine even brighter?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LOC fourth floor location</t>
+          <t>GEN hello</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.562999999994645</v>
+        <v>2.782000000006519</v>
       </c>
       <c r="G2" t="n">
-        <v>9.671000000002095</v>
+        <v>17.5</v>
       </c>
       <c r="H2" t="n">
-        <v>13.23399999999674</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-06-11 18:11:10</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>hello ram</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>where is the room</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>it is located at the 7th floor</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>LOC seventh floor location</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2.985000000000582</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.687000000005355</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.672000000005937</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-06-11 18:11:20</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>hello robi</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>where is the room</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>it is located at the 7th floor</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LOC seventh floor location</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3.157000000006519</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.937000000005355</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.09400000001187</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-06-11 18:11:38</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>where is the room</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>it is located at the 7th floor</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>LOC seventh floor location</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4.01600000000326</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9.968999999997322</v>
-      </c>
-      <c r="H5" t="n">
-        <v>13.98500000000058</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-06-11 18:11:58</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>where is 803</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>it is located at the 8th floor</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LOC eighth floor location</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3.061999999990803</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.969000000011874</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.03100000000268</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-06-11 18:13:19</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>hello rami</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>where is the admissions office</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>it is located here at the 1st floor</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LOC lobby floor location</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3.844000000011874</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.515999999988708</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11.36000000000058</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-06-11 18:13:31</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>hello robi</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>what does the admissions office do</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>it is located here at the 1st floor</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LOC lobby floor location</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3.73399999999674</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.60899999999674</v>
-      </c>
-      <c r="H8" t="n">
-        <v>12.34299999999348</v>
+        <v>20.28200000000652</v>
       </c>
     </row>
   </sheetData>

--- a/chatbotdata.xlsx
+++ b/chatbotdata.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,37 +470,248 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-06-20 20:50:27</t>
+          <t>2023-06-29 00:43:05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>say the keywords hello rami for the program to start listening to their</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>please introduce yourself</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Greetings. I am Rami Bot, a purpose-built robotic assistant exclusively assigned to serve APC. If you require any assistance, I am at your disposal.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GEN who are you</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>9.703000000001339</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21.6880000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.39100000000144</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-06-29 00:44:05</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>hello rami</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Hello, my fantastic friend! How can I make your day shine even brighter?</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GEN hello</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2.782000000006519</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.28200000000652</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>any questions that about me that the butt is trained on</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>please repeat, i could not understand you</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FB Unknown</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3.343999999999141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.0630000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21.40699999999924</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-06-29 00:46:21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>the keywords hello rami</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>music and i'll ask</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>it is located at the 5th floor</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LOC fifth floor location</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5.593999999999141</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.593000000000757</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.1869999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-06-29 00:46:36</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>so let's try again with hello rami</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>please introduce yourself</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Greetings. I am Rami Bot, a purpose-built robotic assistant exclusively assigned to serve APC. If you require any assistance, I am at your disposal.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GEN who are you</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>6.061999999999898</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16.09399999999914</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22.15599999999904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-06-29 00:47:23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>where is the admissions office</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>it is located here at the 1st floor</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LOC lobby floor location</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6.79700000000048</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.84399999999914</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17.64099999999962</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-06-29 00:47:51</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>how much does the food cost in the cafeteria</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Food prices vary from 10 to 30 pesos for snacks and 50 to 140 pesos for a meal. It may be best however if you would see the menu for yourself.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GEN food prices</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>6.671000000000276</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17.51599999999962</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24.1869999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-06-29 00:48:16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>hello rami</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>tell me what day is it today</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FN_current_date</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3.95299999999952</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.92200000000048</v>
+      </c>
+      <c r="H8" t="n">
+        <v>13.875</v>
       </c>
     </row>
   </sheetData>
